--- a/model_training/tracking_sheet.xlsx
+++ b/model_training/tracking_sheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\"/>
@@ -15,6 +15,10 @@
     <sheet name="tracking_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId2"/>
+  </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>site</t>
   </si>
@@ -84,16 +88,70 @@
   </si>
   <si>
     <t>Q2-14</t>
+  </si>
+  <si>
+    <t>USE-0855</t>
+  </si>
+  <si>
+    <t>Q4-15</t>
+  </si>
+  <si>
+    <t>UDLL-0045</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of beta</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>THL-0085</t>
+  </si>
+  <si>
+    <t>Q3-17</t>
+  </si>
+  <si>
+    <t>LSE-0015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,16 +174,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -138,10 +218,1286 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[tracking_sheet.xlsx]tracking_sheet!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tracking_sheet!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tracking_sheet!$A$23:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>level</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>velocity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tracking_sheet!$B$23:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0714285714285717E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1000000000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD42-4D79-A437-AC7BDCC9AB9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="620979312"/>
+        <c:axId val="196146560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="620979312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196146560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196146560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620979312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>191137</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28032</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2423</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AAA953-CD66-40EA-B517-4A257CAF1AE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Hao Zhang" refreshedDate="43157.578034143517" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="22">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="site" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="qtrYr" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="type" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="level"/>
+        <s v="velocity"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="min.size" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="60" maxValue="240" count="4">
+        <n v="120"/>
+        <n v="60"/>
+        <n v="240"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="degree" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="beta" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1E-4" maxValue="0.01" count="10">
+        <n v="1E-3"/>
+        <n v="1E-4"/>
+        <n v="4.4999999999999997E-3"/>
+        <n v="5.0000000000000001E-4"/>
+        <n v="8.0000000000000004E-4"/>
+        <n v="5.0000000000000001E-3"/>
+        <n v="0.01"/>
+        <n v="4.0000000000000001E-3"/>
+        <n v="8.0000000000000002E-3"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="percent" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.25" maxValue="0.25"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="22">
+  <r>
+    <s v="D45-000015"/>
+    <s v="Q4-14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <s v="D45-000015"/>
+    <s v="Q2-16"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <s v="IALL-0008"/>
+    <s v="Q3-16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <s v="LFLL-0015"/>
+    <s v="Q2-15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <s v="S051-08-S0015"/>
+    <s v="Q4-16"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <s v="WLL-0100"/>
+    <s v="Q2-14"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <s v="D45-000015"/>
+    <s v="Q4-14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <s v="WLL-0100"/>
+    <s v="Q2-14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="6"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <s v="USE-0855"/>
+    <s v="Q4-15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="7"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <s v="USE-0855"/>
+    <s v="Q4-15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <s v="UDLL-0045"/>
+    <s v="Q2-15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <s v="UDLL-0045"/>
+    <s v="Q2-15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A22:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of beta" fld="5" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G23" totalsRowShown="0">
-  <autoFilter ref="A1:G23"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H20" totalsRowShown="0">
+  <autoFilter ref="A1:H20"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="site"/>
     <tableColumn id="2" name="qtrYr"/>
     <tableColumn id="3" name="type"/>
@@ -149,6 +1505,9 @@
     <tableColumn id="5" name="degree"/>
     <tableColumn id="6" name="beta"/>
     <tableColumn id="7" name="percent"/>
+    <tableColumn id="8" name="result" dataDxfId="0">
+      <calculatedColumnFormula>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -451,20 +1810,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.3984375" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="32.59765625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +1847,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -504,13 +1868,14 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2E-3</v>
-      </c>
-      <c r="G2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1E-3</v>
+      </c>
+      <c r="H2" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\D45-000015_Q4-14_level_minsize.120_degree.1_beta.0.001_percent..png</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -529,11 +1894,12 @@
       <c r="F3">
         <v>1E-4</v>
       </c>
-      <c r="G3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\D45-000015_Q2-16_level_minsize.60_degree.1_beta.0.0001_percent..png</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -552,11 +1918,12 @@
       <c r="F4">
         <v>1E-4</v>
       </c>
-      <c r="G4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\IALL-0008_Q3-16_level_minsize.120_degree.1_beta.0.0001_percent..png</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -575,11 +1942,12 @@
       <c r="F5">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="G5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\LFLL-0015_Q2-15_velocity_minsize.240_degree.1_beta.0.0045_percent..png</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -598,11 +1966,12 @@
       <c r="F6">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\S051-08-S0015_Q4-16_level_minsize.240_degree.1_beta.0.0005_percent..png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -621,14 +1990,366 @@
       <c r="F7">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G7">
-        <v>0.25</v>
+      <c r="H7" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\WLL-0100_Q2-14_level_minsize.240_degree.1_beta.0.0008_percent..png</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\D45-000015_Q4-14_velocity_minsize.120_degree.1_beta.0.005_percent..png</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>120</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\WLL-0100_Q2-14_velocity_minsize.120_degree.1_beta.0.01_percent..png</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\USE-0855_Q4-15_level_minsize.120_degree.1_beta.0.004_percent..png</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\USE-0855_Q4-15_velocity_minsize.120_degree.1_beta.0.008_percent..png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\UDLL-0045_Q2-15_level_minsize.120_degree.1_beta.0.008_percent..png</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\UDLL-0045_Q2-15_velocity_minsize.120_degree.1_beta.0.004_percent..png</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\THL-0085_Q2-16_level_minsize.120_degree.1_beta.0.005_percent..png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\THL-0085_Q2-16_velocity_minsize.120_degree.1_beta.0.01_percent..png</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\THL-0085_Q3-17_level_minsize.24_degree.0_beta.0.000001_percent..png</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>96</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\THL-0085_Q3-17_velocity_minsize.96_degree.1_beta.0.008_percent..png</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>120</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\LSE-0015_Q3-17_level_minsize.120_degree.1_beta.0.005_percent..png</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\LSE-0015_Q3-17_velocity_minsize.120_degree.1_beta.0.008_percent..png</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2E-3</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>HYPERLINK("C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\" &amp; Table1[[#This Row],[site]] &amp; "_" &amp; Table1[[#This Row],[qtrYr]] &amp; "_" &amp; Table1[[#This Row],[type]] &amp; "_minsize." &amp; Table1[[#This Row],[min.size]] &amp; "_degree." &amp; Table1[[#This Row],[degree]] &amp; "_beta." &amp; Table1[[#This Row],[beta]] &amp; "_percent." &amp; Table1[[#This Row],[percent]] &amp; ".png")</f>
+        <v>C:\Users\hao.zhang\Documents\Rprojects\FlowMon_drift\model_training\THL-0085_Q4-16_level_minsize.120_degree.1_beta.0.002_percent..png</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2.0714285714285717E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4.1666666666666666E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>